--- a/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Kvemo Kartli/C. Rustavi.xlsx
+++ b/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Kvemo Kartli/C. Rustavi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of registered entities by kind of economic activity\Kvemo Kartli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\ENG\byKindOfEconomicActivity\Number of registered entities by kind of economic activity\Kvemo Kartli\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B27F7C1-322D-4BD4-B8B1-1AEEF59BB3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="31635" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rustavi" sheetId="1" r:id="rId1"/>
@@ -96,13 +97,13 @@
     <t>Activity unknown</t>
   </si>
   <si>
-    <t>Number of entities registered in Rustavi by kind of economic activity</t>
+    <t>Number of entities registered in C. Rustavi by kind of economic activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
@@ -252,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -280,11 +281,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,21 +580,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -694,862 +694,862 @@
       <c r="M4" s="11">
         <v>24781</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>26</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>29</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>30</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>39</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>41</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>48</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>53</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>60</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>68</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>73</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>78</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>79</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>13</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>13</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>15</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>17</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>18</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>23</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>25</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>25</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>27</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>30</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>31</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>32</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>701</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>777</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>838</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>915</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>978</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>1014</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>1046</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>1108</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>1172</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>1243</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>1300</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>1353</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>4</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>7</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>8</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>8</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>8</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>9</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>9</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>9</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>9</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>29</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>31</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>35</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>38</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>43</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>43</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>44</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>46</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>48</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>50</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>52</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>53</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>240</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>259</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>293</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>324</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>348</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>375</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>403</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>436</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>478</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>577</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>661</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>729</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>2447</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>2802</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>3097</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>3498</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>3740</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>3916</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>4179</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>4446</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>4741</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>5040</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>5267</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>5458</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>684</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>735</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>800</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>833</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>858</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>854</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>876</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>914</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>947</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>1010</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>1060</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>1094</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>220</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>245</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>271</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>310</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>341</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>358</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>389</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>428</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>463</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>512</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>523</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>541</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>68</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>72</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>79</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>86</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>97</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>100</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>103</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>114</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>120</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>135</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>152</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>181</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>63</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>79</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>86</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>94</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>99</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>109</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>117</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>119</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>116</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>118</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>118</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>116</v>
       </c>
-      <c r="N15" s="12"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>219</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>222</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>236</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>248</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>259</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>268</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>275</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>284</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>296</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>306</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>311</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>315</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>198</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>223</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>238</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>253</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>269</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>282</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>305</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>324</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>334</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>361</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>382</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>395</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>61</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>76</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>93</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>109</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>125</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>136</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>155</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>172</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>188</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>210</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>220</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>234</v>
       </c>
-      <c r="N18" s="12"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>20</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>20</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>21</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>23</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>23</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>23</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>23</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>23</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>23</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>26</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>27</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>29</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>126</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>139</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>149</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>159</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>163</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>172</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>179</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>189</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>201</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>214</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>220</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>226</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>107</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>121</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>127</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>144</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>152</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>158</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>162</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>165</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>171</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>174</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <v>182</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>185</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>96</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>99</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>100</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>108</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>111</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>114</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>116</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>121</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <v>127</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>132</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <v>134</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>143</v>
       </c>
-      <c r="N22" s="12"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>419</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>449</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>456</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>474</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>485</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>485</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>491</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <v>503</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>515</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <v>538</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <v>548</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <v>558</v>
       </c>
-      <c r="N23" s="12"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>8488</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>8738</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>8816</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>9050</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>9626</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>9831</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>10481</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>11007</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>11543</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>11877</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>12265</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <v>13051</v>
       </c>
-      <c r="N24" s="12"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
